--- a/biology/Médecine/Phalange_(os)/Phalange_(os).xlsx
+++ b/biology/Médecine/Phalange_(os)/Phalange_(os).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phalanges sont les os longs constituant les extrémités des membres chez les vertébrés, formant le squelette des doigts ou des orteils ou leur équivalent. Par métonymie, on appelle aussi phalange la partie d'un doigt ou d'un orteil soutenue par un tel os.
 Chez les humains ce sont les phalanges de la main et les phalanges du pied.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes et le nombre des phalanges est très variables d'une espèce à l'autre.
 Les phalanges sont des os long constitué d'une diaphyse et de deux épiphyses dites proximale et distale.
@@ -549,7 +563,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle des phalanges est très variable d'une espèce à l'autre.
 Elles jouent un rôle d'organe de préhension comme pour les primates par exemple.
@@ -585,7 +601,9 @@
           <t>Primates</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La morphologie des phalanges des primates permet la mise en opposition des doigts et en font des organes de préhension sophistiqués.
 </t>
@@ -616,9 +634,11 @@
           <t>Cétacés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baleines présentent une hyperphalangie. L'hyperphalangie est une augmentation du nombre de phalanges au-delà de trois phalanges par doigt[1]. L'hyperphalangie était présente chez les reptiles marins éteints - ichtyosaures, plésiosaures et mosasaures - mais pas chez les autres mammifères marins, laissant les baleines comme les seuls mammifères marins à développer cette caractéristique[2]. Le processus évolutif s'est poursuivi au fil du temps, et une forme très dérivée d'hyperphalangie, avec six phalanges ou plus par doigt, a évolué de manière convergente chez les rorquals et les dauphins océaniques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baleines présentent une hyperphalangie. L'hyperphalangie est une augmentation du nombre de phalanges au-delà de trois phalanges par doigt. L'hyperphalangie était présente chez les reptiles marins éteints - ichtyosaures, plésiosaures et mosasaures - mais pas chez les autres mammifères marins, laissant les baleines comme les seuls mammifères marins à développer cette caractéristique. Le processus évolutif s'est poursuivi au fil du temps, et une forme très dérivée d'hyperphalangie, avec six phalanges ou plus par doigt, a évolué de manière convergente chez les rorquals et les dauphins océaniques.
 </t>
         </is>
       </c>
@@ -647,10 +667,12 @@
           <t>Autres mammifères</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les ongulés, le membre antérieur est optimisé pour la vitesse et l'endurance par une combinaison de longueur de foulée et de pas rapide. les segments proximaux des membres antérieurs sont courts avec de gros muscles, tandis que les segments distaux sont allongés avec moins de musculature. Dans deux des principaux groupes d'ongulés, les ongulés à doigts impairs et à doigts pairs, ce qui reste des "mains" — les os métacarpiens et phalangiens - sont allongés dans la mesure où ils servent peu au-delà de la locomotion. La girafe, le plus grand ongulé à doigts pairs, possède de grandes phalanges terminales et des os métacarpiens fusionnés capables d'absorber les chocs de la course[3].
-Le paresseux passe sa vie suspendu à l'envers à des branches et a des troisième et quatrième doigts hautement spécialisés à cet effet. Ils ont des phalanges proximales courtes et trapues avec des phalanges terminales beaucoup plus longues. Ils ont des deuxième et cinquième métacarpiens résiduels et leur paume s'étend jusqu'aux articulations interphalangiennes distales. La spécialisation arboricole de ces phalanges terminales rend impossible la marche du paresseux sur le sol où l'animal doit traîner son corps avec ses griffes[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les ongulés, le membre antérieur est optimisé pour la vitesse et l'endurance par une combinaison de longueur de foulée et de pas rapide. les segments proximaux des membres antérieurs sont courts avec de gros muscles, tandis que les segments distaux sont allongés avec moins de musculature. Dans deux des principaux groupes d'ongulés, les ongulés à doigts impairs et à doigts pairs, ce qui reste des "mains" — les os métacarpiens et phalangiens - sont allongés dans la mesure où ils servent peu au-delà de la locomotion. La girafe, le plus grand ongulé à doigts pairs, possède de grandes phalanges terminales et des os métacarpiens fusionnés capables d'absorber les chocs de la course.
+Le paresseux passe sa vie suspendu à l'envers à des branches et a des troisième et quatrième doigts hautement spécialisés à cet effet. Ils ont des phalanges proximales courtes et trapues avec des phalanges terminales beaucoup plus longues. Ils ont des deuxième et cinquième métacarpiens résiduels et leur paume s'étend jusqu'aux articulations interphalangiennes distales. La spécialisation arboricole de ces phalanges terminales rend impossible la marche du paresseux sur le sol où l'animal doit traîner son corps avec ses griffes.
 </t>
         </is>
       </c>
